--- a/Design/TestPlan_Nhom21.xlsx
+++ b/Design/TestPlan_Nhom21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thiet_Ke_Xay_Dung_Phan_Mem\TKXDPM.KSCQ.20211-21\Final\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Nam04_Ky1\XayDungPhatTrienPhanMem\TKXDPM.KSCQ.20211-21\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92620A8A-D4C8-4220-A542-F85E0B8C8418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F683C6D1-BEB5-485A-962A-374824184669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
+    <workbookView xWindow="3192" yWindow="2856" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="6" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1182,6 +1182,15 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1194,26 +1203,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1234,38 +1249,23 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2120,7 +2120,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="102" zoomScaleNormal="99" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="102" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A72" zoomScale="102" zoomScaleNormal="99" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="102" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -2894,7 +2894,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -3412,7 +3412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C5B2C3-429F-4460-A64A-54B636503623}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -3648,7 +3648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917CA0A-EA61-4F09-84F9-F925FF2C64CE}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -3749,11 +3749,11 @@
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="32" t="s">
         <v>32</v>
       </c>
@@ -4037,11 +4037,11 @@
       <c r="B33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
       <c r="F33" s="37"/>
     </row>
     <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -4072,11 +4072,11 @@
       <c r="B37" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="37" t="s">
         <v>171</v>
       </c>
@@ -4109,11 +4109,11 @@
       <c r="B41" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
       <c r="F41" s="37" t="s">
         <v>177</v>
       </c>
@@ -4146,26 +4146,26 @@
       <c r="B45" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="64"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="37" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="1.1811023622047243" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4201,17 +4201,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="85"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="24" t="s">
         <v>80</v>
       </c>
@@ -4221,21 +4221,21 @@
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="25" t="s">
         <v>83</v>
       </c>
@@ -4257,10 +4257,10 @@
       <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="23" t="s">
         <v>86</v>
       </c>
@@ -4285,21 +4285,21 @@
       <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="70">
+      <c r="E8" s="77"/>
+      <c r="F8" s="88">
         <v>44682</v>
       </c>
-      <c r="G8" s="71"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="25" t="s">
         <v>90</v>
       </c>
@@ -4320,25 +4320,25 @@
       <c r="A10" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
     </row>
     <row r="11" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>1</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
@@ -4356,15 +4356,15 @@
       <c r="A13" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="87"/>
+      <c r="D13" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -4374,15 +4374,15 @@
       <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72">
+      <c r="C14" s="70"/>
+      <c r="D14" s="70">
         <v>12</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -4401,10 +4401,10 @@
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="87"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="23" t="s">
         <v>183</v>
       </c>
@@ -4420,60 +4420,60 @@
       <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="77" t="s">
+      <c r="C18" s="80"/>
+      <c r="D18" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="80" t="s">
+      <c r="E18" s="83"/>
+      <c r="F18" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="74" t="s">
+      <c r="G18" s="85"/>
+      <c r="H18" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="72" t="s">
+      <c r="C20" s="71"/>
+      <c r="D20" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72" t="s">
+      <c r="E20" s="70"/>
+      <c r="F20" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72" t="s">
+      <c r="G20" s="70"/>
+      <c r="H20" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
@@ -4481,17 +4481,17 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="85"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="85"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="24" t="s">
         <v>80</v>
       </c>
@@ -4501,21 +4501,21 @@
       <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="85"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86" t="s">
+      <c r="E39" s="74"/>
+      <c r="F39" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="G39" s="86"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="25" t="s">
         <v>83</v>
       </c>
@@ -4537,10 +4537,10 @@
       <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="82"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="23" t="s">
         <v>86</v>
       </c>
@@ -4591,25 +4591,25 @@
       <c r="A44" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
     </row>
     <row r="45" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
         <v>1</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
     </row>
     <row r="46" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
@@ -4627,15 +4627,15 @@
       <c r="A47" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88" t="s">
+      <c r="C47" s="87"/>
+      <c r="D47" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
@@ -4645,15 +4645,15 @@
       <c r="A48" s="29">
         <v>1</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72" t="s">
+      <c r="C48" s="70"/>
+      <c r="D48" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -4672,10 +4672,10 @@
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="87"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="23" t="s">
         <v>184</v>
       </c>
@@ -4691,60 +4691,60 @@
       <c r="C51" s="31"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="77" t="s">
+      <c r="C52" s="80"/>
+      <c r="D52" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="78"/>
-      <c r="F52" s="80" t="s">
+      <c r="E52" s="83"/>
+      <c r="F52" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="80"/>
-      <c r="H52" s="74" t="s">
+      <c r="G52" s="85"/>
+      <c r="H52" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="75"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>1</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="73"/>
-      <c r="D54" s="72" t="s">
+      <c r="C54" s="71"/>
+      <c r="D54" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72" t="s">
+      <c r="E54" s="70"/>
+      <c r="F54" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72" t="s">
+      <c r="G54" s="70"/>
+      <c r="H54" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C55" s="31"/>
@@ -4759,17 +4759,17 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="85"/>
+      <c r="B69" s="74"/>
       <c r="C69" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="84" t="s">
+      <c r="D69" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="85"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="24" t="s">
         <v>80</v>
       </c>
@@ -4779,21 +4779,21 @@
       <c r="J69" s="24"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="85"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D70" s="84" t="s">
+      <c r="D70" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="85"/>
-      <c r="F70" s="86" t="s">
+      <c r="E70" s="74"/>
+      <c r="F70" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="G70" s="86"/>
+      <c r="G70" s="75"/>
       <c r="H70" s="25" t="s">
         <v>83</v>
       </c>
@@ -4815,10 +4815,10 @@
       <c r="J71" s="24"/>
     </row>
     <row r="72" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="81" t="s">
+      <c r="A72" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="82"/>
+      <c r="B72" s="77"/>
       <c r="C72" s="23" t="s">
         <v>86</v>
       </c>
@@ -4843,21 +4843,21 @@
       <c r="J73" s="24"/>
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="82"/>
+      <c r="B74" s="77"/>
       <c r="C74" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D74" s="83" t="s">
+      <c r="D74" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="82"/>
-      <c r="F74" s="70" t="s">
+      <c r="E74" s="77"/>
+      <c r="F74" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="G74" s="71"/>
+      <c r="G74" s="89"/>
       <c r="H74" s="25" t="s">
         <v>113</v>
       </c>
@@ -4878,25 +4878,25 @@
       <c r="A76" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="89" t="s">
+      <c r="B76" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="89"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="89"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="29">
         <v>1</v>
       </c>
-      <c r="B77" s="72" t="s">
+      <c r="B77" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
@@ -4914,15 +4914,15 @@
       <c r="A79" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="88" t="s">
+      <c r="B79" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="88"/>
-      <c r="D79" s="88" t="s">
+      <c r="C79" s="87"/>
+      <c r="D79" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
@@ -4932,15 +4932,15 @@
       <c r="A80" s="29">
         <v>1</v>
       </c>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72" t="s">
+      <c r="C80" s="70"/>
+      <c r="D80" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
@@ -4950,15 +4950,15 @@
       <c r="A81" s="29">
         <v>2</v>
       </c>
-      <c r="B81" s="72" t="s">
+      <c r="B81" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72" t="s">
+      <c r="C81" s="70"/>
+      <c r="D81" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
@@ -4968,15 +4968,15 @@
       <c r="A82" s="29">
         <v>3</v>
       </c>
-      <c r="B82" s="72" t="s">
+      <c r="B82" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="72"/>
-      <c r="D82" s="91">
+      <c r="C82" s="70"/>
+      <c r="D82" s="86">
         <v>899</v>
       </c>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
@@ -4986,15 +4986,15 @@
       <c r="A83" s="29">
         <v>4</v>
       </c>
-      <c r="B83" s="72" t="s">
+      <c r="B83" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="72"/>
-      <c r="D83" s="91">
+      <c r="C83" s="70"/>
+      <c r="D83" s="86">
         <v>1185</v>
       </c>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="86"/>
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
@@ -5004,60 +5004,60 @@
       <c r="C84" s="31"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="74" t="s">
+      <c r="A85" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="74" t="s">
+      <c r="B85" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="75"/>
-      <c r="D85" s="77" t="s">
+      <c r="C85" s="80"/>
+      <c r="D85" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="78"/>
-      <c r="F85" s="80" t="s">
+      <c r="E85" s="83"/>
+      <c r="F85" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G85" s="80"/>
-      <c r="H85" s="74" t="s">
+      <c r="G85" s="85"/>
+      <c r="H85" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I85" s="74"/>
-      <c r="J85" s="74"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="75"/>
-      <c r="B86" s="76"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="74"/>
-      <c r="I86" s="74"/>
-      <c r="J86" s="74"/>
+      <c r="A86" s="80"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="79"/>
     </row>
     <row r="87" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>1</v>
       </c>
-      <c r="B87" s="72" t="s">
+      <c r="B87" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="72" t="s">
+      <c r="C87" s="71"/>
+      <c r="D87" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72" t="s">
+      <c r="E87" s="70"/>
+      <c r="F87" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72" t="s">
+      <c r="G87" s="70"/>
+      <c r="H87" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="22" t="s">
@@ -5065,17 +5065,17 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="84" t="s">
+      <c r="A100" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="85"/>
+      <c r="B100" s="74"/>
       <c r="C100" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D100" s="84" t="s">
+      <c r="D100" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E100" s="85"/>
+      <c r="E100" s="74"/>
       <c r="F100" s="24" t="s">
         <v>80</v>
       </c>
@@ -5085,21 +5085,21 @@
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="85"/>
+      <c r="B101" s="74"/>
       <c r="C101" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D101" s="84" t="s">
+      <c r="D101" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E101" s="85"/>
-      <c r="F101" s="86" t="s">
+      <c r="E101" s="74"/>
+      <c r="F101" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="G101" s="86"/>
+      <c r="G101" s="75"/>
       <c r="H101" s="25" t="s">
         <v>83</v>
       </c>
@@ -5121,10 +5121,10 @@
       <c r="J102" s="24"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="81" t="s">
+      <c r="A103" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B103" s="82"/>
+      <c r="B103" s="77"/>
       <c r="C103" s="23" t="s">
         <v>86</v>
       </c>
@@ -5149,21 +5149,21 @@
       <c r="J104" s="24"/>
     </row>
     <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="83" t="s">
+      <c r="A105" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B105" s="82"/>
+      <c r="B105" s="77"/>
       <c r="C105" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="83" t="s">
+      <c r="D105" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E105" s="82"/>
-      <c r="F105" s="70" t="s">
+      <c r="E105" s="77"/>
+      <c r="F105" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="71"/>
+      <c r="G105" s="89"/>
       <c r="H105" s="25" t="s">
         <v>113</v>
       </c>
@@ -5184,25 +5184,25 @@
       <c r="A107" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B107" s="89" t="s">
+      <c r="B107" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C107" s="89"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="89"/>
-      <c r="F107" s="89"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>1</v>
       </c>
-      <c r="B108" s="72" t="s">
+      <c r="B108" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="72"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="72"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
@@ -5220,15 +5220,15 @@
       <c r="A110" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="88" t="s">
+      <c r="B110" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="88"/>
-      <c r="D110" s="88" t="s">
+      <c r="C110" s="87"/>
+      <c r="D110" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E110" s="88"/>
-      <c r="F110" s="88"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="87"/>
       <c r="G110" s="24"/>
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
@@ -5238,15 +5238,15 @@
       <c r="A111" s="29">
         <v>1</v>
       </c>
-      <c r="B111" s="72" t="s">
+      <c r="B111" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="72"/>
-      <c r="D111" s="72" t="s">
+      <c r="C111" s="70"/>
+      <c r="D111" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
       <c r="G111" s="24"/>
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
@@ -5256,15 +5256,15 @@
       <c r="A112" s="29">
         <v>2</v>
       </c>
-      <c r="B112" s="72" t="s">
+      <c r="B112" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="72"/>
-      <c r="D112" s="72" t="s">
+      <c r="C112" s="70"/>
+      <c r="D112" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
       <c r="G112" s="24"/>
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
@@ -5274,15 +5274,15 @@
       <c r="A113" s="29">
         <v>3</v>
       </c>
-      <c r="B113" s="72" t="s">
+      <c r="B113" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="72"/>
-      <c r="D113" s="91" t="s">
+      <c r="C113" s="70"/>
+      <c r="D113" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="E113" s="91"/>
-      <c r="F113" s="91"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="86"/>
       <c r="G113" s="24"/>
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
@@ -5292,15 +5292,15 @@
       <c r="A114" s="29">
         <v>4</v>
       </c>
-      <c r="B114" s="72" t="s">
+      <c r="B114" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="72"/>
-      <c r="D114" s="91">
+      <c r="C114" s="70"/>
+      <c r="D114" s="86">
         <v>1185</v>
       </c>
-      <c r="E114" s="91"/>
-      <c r="F114" s="91"/>
+      <c r="E114" s="86"/>
+      <c r="F114" s="86"/>
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
@@ -5310,60 +5310,60 @@
       <c r="C115" s="31"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="74" t="s">
+      <c r="A116" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="74" t="s">
+      <c r="B116" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C116" s="75"/>
-      <c r="D116" s="77" t="s">
+      <c r="C116" s="80"/>
+      <c r="D116" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E116" s="78"/>
-      <c r="F116" s="80" t="s">
+      <c r="E116" s="83"/>
+      <c r="F116" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G116" s="80"/>
-      <c r="H116" s="74" t="s">
+      <c r="G116" s="85"/>
+      <c r="H116" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I116" s="74"/>
-      <c r="J116" s="74"/>
+      <c r="I116" s="79"/>
+      <c r="J116" s="79"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="75"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="76"/>
-      <c r="D117" s="79"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="80"/>
-      <c r="G117" s="80"/>
-      <c r="H117" s="74"/>
-      <c r="I117" s="74"/>
-      <c r="J117" s="74"/>
+      <c r="A117" s="80"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="81"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="79"/>
+      <c r="I117" s="79"/>
+      <c r="J117" s="79"/>
     </row>
     <row r="118" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="29">
         <v>1</v>
       </c>
-      <c r="B118" s="72" t="s">
+      <c r="B118" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="73"/>
-      <c r="D118" s="72" t="s">
+      <c r="C118" s="71"/>
+      <c r="D118" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="E118" s="72"/>
-      <c r="F118" s="72" t="s">
+      <c r="E118" s="70"/>
+      <c r="F118" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72" t="s">
+      <c r="G118" s="70"/>
+      <c r="H118" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I118" s="72"/>
-      <c r="J118" s="72"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="70"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="22" t="s">
@@ -5371,17 +5371,17 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="84" t="s">
+      <c r="A131" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B131" s="85"/>
+      <c r="B131" s="74"/>
       <c r="C131" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D131" s="84" t="s">
+      <c r="D131" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E131" s="85"/>
+      <c r="E131" s="74"/>
       <c r="F131" s="24" t="s">
         <v>80</v>
       </c>
@@ -5391,21 +5391,21 @@
       <c r="J131" s="24"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B132" s="85"/>
+      <c r="B132" s="74"/>
       <c r="C132" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D132" s="84" t="s">
+      <c r="D132" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E132" s="85"/>
-      <c r="F132" s="86" t="s">
+      <c r="E132" s="74"/>
+      <c r="F132" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="G132" s="86"/>
+      <c r="G132" s="75"/>
       <c r="H132" s="25" t="s">
         <v>83</v>
       </c>
@@ -5427,10 +5427,10 @@
       <c r="J133" s="24"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="81" t="s">
+      <c r="A134" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B134" s="82"/>
+      <c r="B134" s="77"/>
       <c r="C134" s="23" t="s">
         <v>86</v>
       </c>
@@ -5455,21 +5455,21 @@
       <c r="J135" s="24"/>
     </row>
     <row r="136" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="83" t="s">
+      <c r="A136" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B136" s="82"/>
+      <c r="B136" s="77"/>
       <c r="C136" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D136" s="83" t="s">
+      <c r="D136" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E136" s="82"/>
-      <c r="F136" s="70" t="s">
+      <c r="E136" s="77"/>
+      <c r="F136" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="G136" s="71"/>
+      <c r="G136" s="89"/>
       <c r="H136" s="25" t="s">
         <v>113</v>
       </c>
@@ -5490,25 +5490,25 @@
       <c r="A138" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B138" s="89" t="s">
+      <c r="B138" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="89"/>
+      <c r="C138" s="72"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="29">
         <v>1</v>
       </c>
-      <c r="B139" s="72" t="s">
+      <c r="B139" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C139" s="72"/>
-      <c r="D139" s="72"/>
-      <c r="E139" s="72"/>
-      <c r="F139" s="72"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="24"/>
@@ -5526,15 +5526,15 @@
       <c r="A141" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B141" s="88" t="s">
+      <c r="B141" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C141" s="88"/>
-      <c r="D141" s="88" t="s">
+      <c r="C141" s="87"/>
+      <c r="D141" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E141" s="88"/>
-      <c r="F141" s="88"/>
+      <c r="E141" s="87"/>
+      <c r="F141" s="87"/>
       <c r="G141" s="24"/>
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
@@ -5544,15 +5544,15 @@
       <c r="A142" s="29">
         <v>1</v>
       </c>
-      <c r="B142" s="72" t="s">
+      <c r="B142" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72" t="s">
+      <c r="C142" s="70"/>
+      <c r="D142" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E142" s="72"/>
-      <c r="F142" s="72"/>
+      <c r="E142" s="70"/>
+      <c r="F142" s="70"/>
       <c r="G142" s="24"/>
       <c r="H142" s="24"/>
       <c r="I142" s="24"/>
@@ -5562,15 +5562,15 @@
       <c r="A143" s="29">
         <v>2</v>
       </c>
-      <c r="B143" s="72" t="s">
+      <c r="B143" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C143" s="72"/>
-      <c r="D143" s="72" t="s">
+      <c r="C143" s="70"/>
+      <c r="D143" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="E143" s="72"/>
-      <c r="F143" s="72"/>
+      <c r="E143" s="70"/>
+      <c r="F143" s="70"/>
       <c r="G143" s="24"/>
       <c r="H143" s="24"/>
       <c r="I143" s="24"/>
@@ -5580,15 +5580,15 @@
       <c r="A144" s="29">
         <v>3</v>
       </c>
-      <c r="B144" s="72" t="s">
+      <c r="B144" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C144" s="72"/>
-      <c r="D144" s="91">
+      <c r="C144" s="70"/>
+      <c r="D144" s="86">
         <v>899</v>
       </c>
-      <c r="E144" s="91"/>
-      <c r="F144" s="91"/>
+      <c r="E144" s="86"/>
+      <c r="F144" s="86"/>
       <c r="G144" s="24"/>
       <c r="H144" s="24"/>
       <c r="I144" s="24"/>
@@ -5598,15 +5598,15 @@
       <c r="A145" s="29">
         <v>4</v>
       </c>
-      <c r="B145" s="72" t="s">
+      <c r="B145" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C145" s="72"/>
-      <c r="D145" s="91">
+      <c r="C145" s="70"/>
+      <c r="D145" s="86">
         <v>1185</v>
       </c>
-      <c r="E145" s="91"/>
-      <c r="F145" s="91"/>
+      <c r="E145" s="86"/>
+      <c r="F145" s="86"/>
       <c r="G145" s="24"/>
       <c r="H145" s="24"/>
       <c r="I145" s="24"/>
@@ -5616,60 +5616,60 @@
       <c r="C146" s="31"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="74" t="s">
+      <c r="A147" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B147" s="74" t="s">
+      <c r="B147" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C147" s="75"/>
-      <c r="D147" s="77" t="s">
+      <c r="C147" s="80"/>
+      <c r="D147" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E147" s="78"/>
-      <c r="F147" s="80" t="s">
+      <c r="E147" s="83"/>
+      <c r="F147" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G147" s="80"/>
-      <c r="H147" s="74" t="s">
+      <c r="G147" s="85"/>
+      <c r="H147" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I147" s="74"/>
-      <c r="J147" s="74"/>
+      <c r="I147" s="79"/>
+      <c r="J147" s="79"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="75"/>
-      <c r="B148" s="76"/>
-      <c r="C148" s="76"/>
-      <c r="D148" s="79"/>
-      <c r="E148" s="79"/>
-      <c r="F148" s="80"/>
-      <c r="G148" s="80"/>
-      <c r="H148" s="74"/>
-      <c r="I148" s="74"/>
-      <c r="J148" s="74"/>
+      <c r="A148" s="80"/>
+      <c r="B148" s="81"/>
+      <c r="C148" s="81"/>
+      <c r="D148" s="84"/>
+      <c r="E148" s="84"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="85"/>
+      <c r="H148" s="79"/>
+      <c r="I148" s="79"/>
+      <c r="J148" s="79"/>
     </row>
     <row r="149" spans="1:10" s="46" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="29">
         <v>1</v>
       </c>
-      <c r="B149" s="72" t="s">
+      <c r="B149" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C149" s="73"/>
-      <c r="D149" s="72" t="s">
+      <c r="C149" s="71"/>
+      <c r="D149" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="E149" s="72"/>
-      <c r="F149" s="72" t="s">
+      <c r="E149" s="70"/>
+      <c r="F149" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G149" s="72"/>
-      <c r="H149" s="72" t="s">
+      <c r="G149" s="70"/>
+      <c r="H149" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I149" s="72"/>
-      <c r="J149" s="72"/>
+      <c r="I149" s="70"/>
+      <c r="J149" s="70"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="22" t="s">
@@ -5677,17 +5677,17 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="84" t="s">
+      <c r="A161" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B161" s="85"/>
+      <c r="B161" s="74"/>
       <c r="C161" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D161" s="84" t="s">
+      <c r="D161" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E161" s="85"/>
+      <c r="E161" s="74"/>
       <c r="F161" s="24" t="s">
         <v>80</v>
       </c>
@@ -5697,21 +5697,21 @@
       <c r="J161" s="24"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="84" t="s">
+      <c r="A162" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B162" s="85"/>
+      <c r="B162" s="74"/>
       <c r="C162" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D162" s="84" t="s">
+      <c r="D162" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E162" s="85"/>
-      <c r="F162" s="86" t="s">
+      <c r="E162" s="74"/>
+      <c r="F162" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="G162" s="86"/>
+      <c r="G162" s="75"/>
       <c r="H162" s="25" t="s">
         <v>83</v>
       </c>
@@ -5733,10 +5733,10 @@
       <c r="J163" s="24"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" s="81" t="s">
+      <c r="A164" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B164" s="82"/>
+      <c r="B164" s="77"/>
       <c r="C164" s="23" t="s">
         <v>86</v>
       </c>
@@ -5761,21 +5761,21 @@
       <c r="J165" s="24"/>
     </row>
     <row r="166" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="83" t="s">
+      <c r="A166" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B166" s="82"/>
+      <c r="B166" s="77"/>
       <c r="C166" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D166" s="83" t="s">
+      <c r="D166" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E166" s="82"/>
-      <c r="F166" s="70" t="s">
+      <c r="E166" s="77"/>
+      <c r="F166" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="G166" s="71"/>
+      <c r="G166" s="89"/>
       <c r="H166" s="25" t="s">
         <v>113</v>
       </c>
@@ -5796,25 +5796,25 @@
       <c r="A168" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B168" s="89" t="s">
+      <c r="B168" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C168" s="89"/>
-      <c r="D168" s="89"/>
-      <c r="E168" s="89"/>
-      <c r="F168" s="89"/>
+      <c r="C168" s="72"/>
+      <c r="D168" s="72"/>
+      <c r="E168" s="72"/>
+      <c r="F168" s="72"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="29">
         <v>1</v>
       </c>
-      <c r="B169" s="72" t="s">
+      <c r="B169" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="24"/>
@@ -5832,15 +5832,15 @@
       <c r="A171" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B171" s="88" t="s">
+      <c r="B171" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C171" s="88"/>
-      <c r="D171" s="88" t="s">
+      <c r="C171" s="87"/>
+      <c r="D171" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E171" s="88"/>
-      <c r="F171" s="88"/>
+      <c r="E171" s="87"/>
+      <c r="F171" s="87"/>
       <c r="G171" s="24"/>
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
@@ -5850,15 +5850,15 @@
       <c r="A172" s="29">
         <v>1</v>
       </c>
-      <c r="B172" s="72" t="s">
+      <c r="B172" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C172" s="72"/>
-      <c r="D172" s="72" t="s">
+      <c r="C172" s="70"/>
+      <c r="D172" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E172" s="72"/>
-      <c r="F172" s="72"/>
+      <c r="E172" s="70"/>
+      <c r="F172" s="70"/>
       <c r="G172" s="24"/>
       <c r="H172" s="24"/>
       <c r="I172" s="24"/>
@@ -5868,15 +5868,15 @@
       <c r="A173" s="29">
         <v>2</v>
       </c>
-      <c r="B173" s="72" t="s">
+      <c r="B173" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C173" s="72"/>
-      <c r="D173" s="72" t="s">
+      <c r="C173" s="70"/>
+      <c r="D173" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="E173" s="72"/>
-      <c r="F173" s="72"/>
+      <c r="E173" s="70"/>
+      <c r="F173" s="70"/>
       <c r="G173" s="24"/>
       <c r="H173" s="24"/>
       <c r="I173" s="24"/>
@@ -5886,15 +5886,15 @@
       <c r="A174" s="29">
         <v>3</v>
       </c>
-      <c r="B174" s="72" t="s">
+      <c r="B174" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C174" s="72"/>
-      <c r="D174" s="91">
+      <c r="C174" s="70"/>
+      <c r="D174" s="86">
         <v>899</v>
       </c>
-      <c r="E174" s="91"/>
-      <c r="F174" s="91"/>
+      <c r="E174" s="86"/>
+      <c r="F174" s="86"/>
       <c r="G174" s="24"/>
       <c r="H174" s="24"/>
       <c r="I174" s="24"/>
@@ -5904,15 +5904,15 @@
       <c r="A175" s="29">
         <v>4</v>
       </c>
-      <c r="B175" s="72" t="s">
+      <c r="B175" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C175" s="72"/>
-      <c r="D175" s="91">
+      <c r="C175" s="70"/>
+      <c r="D175" s="86">
         <v>1185</v>
       </c>
-      <c r="E175" s="91"/>
-      <c r="F175" s="91"/>
+      <c r="E175" s="86"/>
+      <c r="F175" s="86"/>
       <c r="G175" s="24"/>
       <c r="H175" s="24"/>
       <c r="I175" s="24"/>
@@ -5922,82 +5922,82 @@
       <c r="C176" s="31"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" s="74" t="s">
+      <c r="A177" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B177" s="74" t="s">
+      <c r="B177" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C177" s="75"/>
-      <c r="D177" s="77" t="s">
+      <c r="C177" s="80"/>
+      <c r="D177" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E177" s="78"/>
-      <c r="F177" s="80" t="s">
+      <c r="E177" s="83"/>
+      <c r="F177" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G177" s="80"/>
-      <c r="H177" s="74" t="s">
+      <c r="G177" s="85"/>
+      <c r="H177" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I177" s="74"/>
-      <c r="J177" s="74"/>
+      <c r="I177" s="79"/>
+      <c r="J177" s="79"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="75"/>
-      <c r="B178" s="76"/>
-      <c r="C178" s="76"/>
-      <c r="D178" s="79"/>
-      <c r="E178" s="79"/>
-      <c r="F178" s="80"/>
-      <c r="G178" s="80"/>
-      <c r="H178" s="74"/>
-      <c r="I178" s="74"/>
-      <c r="J178" s="74"/>
+      <c r="A178" s="80"/>
+      <c r="B178" s="81"/>
+      <c r="C178" s="81"/>
+      <c r="D178" s="84"/>
+      <c r="E178" s="84"/>
+      <c r="F178" s="85"/>
+      <c r="G178" s="85"/>
+      <c r="H178" s="79"/>
+      <c r="I178" s="79"/>
+      <c r="J178" s="79"/>
     </row>
     <row r="179" spans="1:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="29">
         <v>1</v>
       </c>
-      <c r="B179" s="72" t="s">
+      <c r="B179" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C179" s="73"/>
-      <c r="D179" s="72" t="s">
+      <c r="C179" s="71"/>
+      <c r="D179" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="E179" s="72"/>
-      <c r="F179" s="72" t="s">
+      <c r="E179" s="70"/>
+      <c r="F179" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G179" s="72"/>
-      <c r="H179" s="72" t="s">
+      <c r="G179" s="70"/>
+      <c r="H179" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I179" s="72"/>
-      <c r="J179" s="72"/>
+      <c r="I179" s="70"/>
+      <c r="J179" s="70"/>
     </row>
     <row r="180" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="29">
         <v>2</v>
       </c>
-      <c r="B180" s="72" t="s">
+      <c r="B180" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C180" s="73"/>
-      <c r="D180" s="72" t="s">
+      <c r="C180" s="71"/>
+      <c r="D180" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="E180" s="72"/>
-      <c r="F180" s="72" t="s">
+      <c r="E180" s="70"/>
+      <c r="F180" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G180" s="72"/>
-      <c r="H180" s="72" t="s">
+      <c r="G180" s="70"/>
+      <c r="H180" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I180" s="72"/>
-      <c r="J180" s="72"/>
+      <c r="I180" s="70"/>
+      <c r="J180" s="70"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="22" t="s">
@@ -6005,17 +6005,17 @@
       </c>
     </row>
     <row r="189" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="84" t="s">
+      <c r="A189" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B189" s="85"/>
+      <c r="B189" s="74"/>
       <c r="C189" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D189" s="84" t="s">
+      <c r="D189" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E189" s="85"/>
+      <c r="E189" s="74"/>
       <c r="F189" s="24" t="s">
         <v>80</v>
       </c>
@@ -6025,21 +6025,21 @@
       <c r="J189" s="24"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="84" t="s">
+      <c r="A190" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B190" s="85"/>
+      <c r="B190" s="74"/>
       <c r="C190" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D190" s="84" t="s">
+      <c r="D190" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E190" s="85"/>
-      <c r="F190" s="86" t="s">
+      <c r="E190" s="74"/>
+      <c r="F190" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="86"/>
+      <c r="G190" s="75"/>
       <c r="H190" s="25" t="s">
         <v>83</v>
       </c>
@@ -6061,10 +6061,10 @@
       <c r="J191" s="24"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="81" t="s">
+      <c r="A192" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B192" s="82"/>
+      <c r="B192" s="77"/>
       <c r="C192" s="23" t="s">
         <v>86</v>
       </c>
@@ -6089,21 +6089,21 @@
       <c r="J193" s="24"/>
     </row>
     <row r="194" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="83" t="s">
+      <c r="A194" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B194" s="82"/>
+      <c r="B194" s="77"/>
       <c r="C194" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D194" s="83" t="s">
+      <c r="D194" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E194" s="82"/>
-      <c r="F194" s="70" t="s">
+      <c r="E194" s="77"/>
+      <c r="F194" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="G194" s="71"/>
+      <c r="G194" s="89"/>
       <c r="H194" s="25" t="s">
         <v>113</v>
       </c>
@@ -6124,25 +6124,25 @@
       <c r="A196" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B196" s="89" t="s">
+      <c r="B196" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C196" s="89"/>
-      <c r="D196" s="89"/>
-      <c r="E196" s="89"/>
-      <c r="F196" s="89"/>
+      <c r="C196" s="72"/>
+      <c r="D196" s="72"/>
+      <c r="E196" s="72"/>
+      <c r="F196" s="72"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="29">
         <v>1</v>
       </c>
-      <c r="B197" s="72" t="s">
+      <c r="B197" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="72"/>
-      <c r="D197" s="72"/>
-      <c r="E197" s="72"/>
-      <c r="F197" s="72"/>
+      <c r="C197" s="70"/>
+      <c r="D197" s="70"/>
+      <c r="E197" s="70"/>
+      <c r="F197" s="70"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="24"/>
@@ -6160,15 +6160,15 @@
       <c r="A199" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B199" s="88" t="s">
+      <c r="B199" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C199" s="88"/>
-      <c r="D199" s="88" t="s">
+      <c r="C199" s="87"/>
+      <c r="D199" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E199" s="88"/>
-      <c r="F199" s="88"/>
+      <c r="E199" s="87"/>
+      <c r="F199" s="87"/>
       <c r="G199" s="24"/>
       <c r="H199" s="24"/>
       <c r="I199" s="24"/>
@@ -6178,116 +6178,116 @@
       <c r="A200" s="29">
         <v>1</v>
       </c>
-      <c r="B200" s="72" t="s">
+      <c r="B200" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C200" s="72"/>
-      <c r="D200" s="72" t="s">
+      <c r="C200" s="70"/>
+      <c r="D200" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E200" s="72"/>
-      <c r="F200" s="72"/>
+      <c r="E200" s="70"/>
+      <c r="F200" s="70"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="29">
         <v>2</v>
       </c>
-      <c r="B201" s="72" t="s">
+      <c r="B201" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C201" s="72"/>
-      <c r="D201" s="72" t="s">
+      <c r="C201" s="70"/>
+      <c r="D201" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="E201" s="72"/>
-      <c r="F201" s="72"/>
+      <c r="E201" s="70"/>
+      <c r="F201" s="70"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="29">
         <v>3</v>
       </c>
-      <c r="B202" s="72" t="s">
+      <c r="B202" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C202" s="72"/>
-      <c r="D202" s="91">
+      <c r="C202" s="70"/>
+      <c r="D202" s="86">
         <v>899</v>
       </c>
-      <c r="E202" s="91"/>
-      <c r="F202" s="91"/>
+      <c r="E202" s="86"/>
+      <c r="F202" s="86"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="29">
         <v>4</v>
       </c>
-      <c r="B203" s="72" t="s">
+      <c r="B203" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C203" s="72"/>
-      <c r="D203" s="91">
+      <c r="C203" s="70"/>
+      <c r="D203" s="86">
         <v>1185</v>
       </c>
-      <c r="E203" s="91"/>
-      <c r="F203" s="91"/>
+      <c r="E203" s="86"/>
+      <c r="F203" s="86"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C204" s="31"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" s="74" t="s">
+      <c r="A205" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B205" s="74" t="s">
+      <c r="B205" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C205" s="75"/>
-      <c r="D205" s="77" t="s">
+      <c r="C205" s="80"/>
+      <c r="D205" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E205" s="78"/>
-      <c r="F205" s="80" t="s">
+      <c r="E205" s="83"/>
+      <c r="F205" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G205" s="80"/>
-      <c r="H205" s="74" t="s">
+      <c r="G205" s="85"/>
+      <c r="H205" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I205" s="74"/>
-      <c r="J205" s="74"/>
+      <c r="I205" s="79"/>
+      <c r="J205" s="79"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="75"/>
-      <c r="B206" s="76"/>
-      <c r="C206" s="76"/>
-      <c r="D206" s="79"/>
-      <c r="E206" s="79"/>
-      <c r="F206" s="80"/>
-      <c r="G206" s="80"/>
-      <c r="H206" s="74"/>
-      <c r="I206" s="74"/>
-      <c r="J206" s="74"/>
+      <c r="A206" s="80"/>
+      <c r="B206" s="81"/>
+      <c r="C206" s="81"/>
+      <c r="D206" s="84"/>
+      <c r="E206" s="84"/>
+      <c r="F206" s="85"/>
+      <c r="G206" s="85"/>
+      <c r="H206" s="79"/>
+      <c r="I206" s="79"/>
+      <c r="J206" s="79"/>
     </row>
     <row r="207" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29">
         <v>3</v>
       </c>
-      <c r="B207" s="72" t="s">
+      <c r="B207" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C207" s="73"/>
-      <c r="D207" s="72" t="s">
+      <c r="C207" s="71"/>
+      <c r="D207" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="E207" s="72"/>
-      <c r="F207" s="72" t="s">
+      <c r="E207" s="70"/>
+      <c r="F207" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G207" s="72"/>
-      <c r="H207" s="72" t="s">
+      <c r="G207" s="70"/>
+      <c r="H207" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I207" s="72"/>
-      <c r="J207" s="72"/>
+      <c r="I207" s="70"/>
+      <c r="J207" s="70"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="22" t="s">
@@ -6295,17 +6295,17 @@
       </c>
     </row>
     <row r="217" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="84" t="s">
+      <c r="A217" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B217" s="85"/>
+      <c r="B217" s="74"/>
       <c r="C217" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D217" s="84" t="s">
+      <c r="D217" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E217" s="85"/>
+      <c r="E217" s="74"/>
       <c r="F217" s="24" t="s">
         <v>80</v>
       </c>
@@ -6315,21 +6315,21 @@
       <c r="J217" s="24"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="84" t="s">
+      <c r="A218" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B218" s="85"/>
+      <c r="B218" s="74"/>
       <c r="C218" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D218" s="84" t="s">
+      <c r="D218" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E218" s="85"/>
-      <c r="F218" s="86" t="s">
+      <c r="E218" s="74"/>
+      <c r="F218" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="G218" s="86"/>
+      <c r="G218" s="75"/>
       <c r="H218" s="25" t="s">
         <v>83</v>
       </c>
@@ -6351,10 +6351,10 @@
       <c r="J219" s="24"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A220" s="81" t="s">
+      <c r="A220" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B220" s="82"/>
+      <c r="B220" s="77"/>
       <c r="C220" s="23" t="s">
         <v>86</v>
       </c>
@@ -6379,21 +6379,21 @@
       <c r="J221" s="24"/>
     </row>
     <row r="222" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="83" t="s">
+      <c r="A222" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B222" s="82"/>
+      <c r="B222" s="77"/>
       <c r="C222" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D222" s="83" t="s">
+      <c r="D222" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E222" s="82"/>
-      <c r="F222" s="70" t="s">
+      <c r="E222" s="77"/>
+      <c r="F222" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="G222" s="71"/>
+      <c r="G222" s="89"/>
       <c r="H222" s="25" t="s">
         <v>113</v>
       </c>
@@ -6414,25 +6414,25 @@
       <c r="A224" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B224" s="89" t="s">
+      <c r="B224" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C224" s="89"/>
-      <c r="D224" s="89"/>
-      <c r="E224" s="89"/>
-      <c r="F224" s="89"/>
+      <c r="C224" s="72"/>
+      <c r="D224" s="72"/>
+      <c r="E224" s="72"/>
+      <c r="F224" s="72"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="29">
         <v>1</v>
       </c>
-      <c r="B225" s="72" t="s">
+      <c r="B225" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="C225" s="72"/>
-      <c r="D225" s="72"/>
-      <c r="E225" s="72"/>
-      <c r="F225" s="72"/>
+      <c r="C225" s="70"/>
+      <c r="D225" s="70"/>
+      <c r="E225" s="70"/>
+      <c r="F225" s="70"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="24"/>
@@ -6450,15 +6450,15 @@
       <c r="A227" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B227" s="88" t="s">
+      <c r="B227" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C227" s="88"/>
-      <c r="D227" s="88" t="s">
+      <c r="C227" s="87"/>
+      <c r="D227" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E227" s="88"/>
-      <c r="F227" s="88"/>
+      <c r="E227" s="87"/>
+      <c r="F227" s="87"/>
       <c r="G227" s="24"/>
       <c r="H227" s="24"/>
       <c r="I227" s="24"/>
@@ -6468,182 +6468,182 @@
       <c r="A228" s="29">
         <v>1</v>
       </c>
-      <c r="B228" s="72" t="s">
+      <c r="B228" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C228" s="72"/>
-      <c r="D228" s="72" t="s">
+      <c r="C228" s="70"/>
+      <c r="D228" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E228" s="72"/>
-      <c r="F228" s="72"/>
+      <c r="E228" s="70"/>
+      <c r="F228" s="70"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="29">
         <v>2</v>
       </c>
-      <c r="B229" s="72" t="s">
+      <c r="B229" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C229" s="72"/>
-      <c r="D229" s="72" t="s">
+      <c r="C229" s="70"/>
+      <c r="D229" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="E229" s="72"/>
-      <c r="F229" s="72"/>
+      <c r="E229" s="70"/>
+      <c r="F229" s="70"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="29">
         <v>3</v>
       </c>
-      <c r="B230" s="72" t="s">
+      <c r="B230" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C230" s="72"/>
-      <c r="D230" s="91">
+      <c r="C230" s="70"/>
+      <c r="D230" s="86">
         <v>899</v>
       </c>
-      <c r="E230" s="91"/>
-      <c r="F230" s="91"/>
+      <c r="E230" s="86"/>
+      <c r="F230" s="86"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="29">
         <v>4</v>
       </c>
-      <c r="B231" s="72" t="s">
+      <c r="B231" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C231" s="72"/>
-      <c r="D231" s="91">
+      <c r="C231" s="70"/>
+      <c r="D231" s="86">
         <v>1185</v>
       </c>
-      <c r="E231" s="91"/>
-      <c r="F231" s="91"/>
+      <c r="E231" s="86"/>
+      <c r="F231" s="86"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C232" s="31"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A233" s="74" t="s">
+      <c r="A233" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B233" s="74" t="s">
+      <c r="B233" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C233" s="75"/>
-      <c r="D233" s="77" t="s">
+      <c r="C233" s="80"/>
+      <c r="D233" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E233" s="78"/>
-      <c r="F233" s="80" t="s">
+      <c r="E233" s="83"/>
+      <c r="F233" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G233" s="80"/>
-      <c r="H233" s="74" t="s">
+      <c r="G233" s="85"/>
+      <c r="H233" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I233" s="74"/>
-      <c r="J233" s="74"/>
+      <c r="I233" s="79"/>
+      <c r="J233" s="79"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A234" s="75"/>
-      <c r="B234" s="76"/>
-      <c r="C234" s="76"/>
-      <c r="D234" s="79"/>
-      <c r="E234" s="79"/>
-      <c r="F234" s="80"/>
-      <c r="G234" s="80"/>
-      <c r="H234" s="74"/>
-      <c r="I234" s="74"/>
-      <c r="J234" s="74"/>
+      <c r="A234" s="80"/>
+      <c r="B234" s="81"/>
+      <c r="C234" s="81"/>
+      <c r="D234" s="84"/>
+      <c r="E234" s="84"/>
+      <c r="F234" s="85"/>
+      <c r="G234" s="85"/>
+      <c r="H234" s="79"/>
+      <c r="I234" s="79"/>
+      <c r="J234" s="79"/>
     </row>
     <row r="235" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="29">
         <v>1</v>
       </c>
-      <c r="B235" s="72" t="s">
+      <c r="B235" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C235" s="73"/>
-      <c r="D235" s="72" t="s">
+      <c r="C235" s="71"/>
+      <c r="D235" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="E235" s="72"/>
-      <c r="F235" s="72" t="s">
+      <c r="E235" s="70"/>
+      <c r="F235" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G235" s="72"/>
-      <c r="H235" s="72" t="s">
+      <c r="G235" s="70"/>
+      <c r="H235" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I235" s="72"/>
-      <c r="J235" s="72"/>
+      <c r="I235" s="70"/>
+      <c r="J235" s="70"/>
     </row>
     <row r="236" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="29">
         <v>2</v>
       </c>
-      <c r="B236" s="72" t="s">
+      <c r="B236" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C236" s="73"/>
-      <c r="D236" s="72" t="s">
+      <c r="C236" s="71"/>
+      <c r="D236" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="E236" s="72"/>
-      <c r="F236" s="72" t="s">
+      <c r="E236" s="70"/>
+      <c r="F236" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G236" s="72"/>
-      <c r="H236" s="72" t="s">
+      <c r="G236" s="70"/>
+      <c r="H236" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I236" s="72"/>
-      <c r="J236" s="72"/>
+      <c r="I236" s="70"/>
+      <c r="J236" s="70"/>
     </row>
     <row r="237" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="29">
         <v>3</v>
       </c>
-      <c r="B237" s="72" t="s">
+      <c r="B237" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="C237" s="73"/>
-      <c r="D237" s="72" t="s">
+      <c r="C237" s="71"/>
+      <c r="D237" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="E237" s="72"/>
-      <c r="F237" s="72" t="s">
+      <c r="E237" s="70"/>
+      <c r="F237" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G237" s="72"/>
-      <c r="H237" s="72" t="s">
+      <c r="G237" s="70"/>
+      <c r="H237" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I237" s="72"/>
-      <c r="J237" s="72"/>
+      <c r="I237" s="70"/>
+      <c r="J237" s="70"/>
     </row>
     <row r="238" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="29">
         <v>4</v>
       </c>
-      <c r="B238" s="72" t="s">
+      <c r="B238" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C238" s="73"/>
-      <c r="D238" s="72" t="s">
+      <c r="C238" s="71"/>
+      <c r="D238" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="E238" s="72"/>
-      <c r="F238" s="72" t="s">
+      <c r="E238" s="70"/>
+      <c r="F238" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G238" s="72"/>
-      <c r="H238" s="72" t="s">
+      <c r="G238" s="70"/>
+      <c r="H238" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I238" s="72"/>
-      <c r="J238" s="72"/>
+      <c r="I238" s="70"/>
+      <c r="J238" s="70"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="22" t="s">
@@ -6651,17 +6651,17 @@
       </c>
     </row>
     <row r="241" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="84" t="s">
+      <c r="A241" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B241" s="85"/>
+      <c r="B241" s="74"/>
       <c r="C241" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D241" s="84" t="s">
+      <c r="D241" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E241" s="85"/>
+      <c r="E241" s="74"/>
       <c r="F241" s="24" t="s">
         <v>80</v>
       </c>
@@ -6671,21 +6671,21 @@
       <c r="J241" s="24"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A242" s="84" t="s">
+      <c r="A242" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B242" s="85"/>
+      <c r="B242" s="74"/>
       <c r="C242" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D242" s="84" t="s">
+      <c r="D242" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E242" s="85"/>
-      <c r="F242" s="86" t="s">
+      <c r="E242" s="74"/>
+      <c r="F242" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="G242" s="86"/>
+      <c r="G242" s="75"/>
       <c r="H242" s="25" t="s">
         <v>83</v>
       </c>
@@ -6707,10 +6707,10 @@
       <c r="J243" s="24"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A244" s="81" t="s">
+      <c r="A244" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B244" s="82"/>
+      <c r="B244" s="77"/>
       <c r="C244" s="23" t="s">
         <v>86</v>
       </c>
@@ -6735,21 +6735,21 @@
       <c r="J245" s="24"/>
     </row>
     <row r="246" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="83" t="s">
+      <c r="A246" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B246" s="82"/>
+      <c r="B246" s="77"/>
       <c r="C246" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D246" s="83" t="s">
+      <c r="D246" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E246" s="82"/>
-      <c r="F246" s="70" t="s">
+      <c r="E246" s="77"/>
+      <c r="F246" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="G246" s="71"/>
+      <c r="G246" s="89"/>
       <c r="H246" s="25" t="s">
         <v>113</v>
       </c>
@@ -6770,25 +6770,25 @@
       <c r="A248" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B248" s="89" t="s">
+      <c r="B248" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C248" s="89"/>
-      <c r="D248" s="89"/>
-      <c r="E248" s="89"/>
-      <c r="F248" s="89"/>
+      <c r="C248" s="72"/>
+      <c r="D248" s="72"/>
+      <c r="E248" s="72"/>
+      <c r="F248" s="72"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="29">
         <v>1</v>
       </c>
-      <c r="B249" s="72" t="s">
+      <c r="B249" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C249" s="72"/>
-      <c r="D249" s="72"/>
-      <c r="E249" s="72"/>
-      <c r="F249" s="72"/>
+      <c r="C249" s="70"/>
+      <c r="D249" s="70"/>
+      <c r="E249" s="70"/>
+      <c r="F249" s="70"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="24"/>
@@ -6806,15 +6806,15 @@
       <c r="A251" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B251" s="88" t="s">
+      <c r="B251" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C251" s="88"/>
-      <c r="D251" s="88" t="s">
+      <c r="C251" s="87"/>
+      <c r="D251" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E251" s="88"/>
-      <c r="F251" s="88"/>
+      <c r="E251" s="87"/>
+      <c r="F251" s="87"/>
       <c r="G251" s="24"/>
       <c r="H251" s="24"/>
       <c r="I251" s="24"/>
@@ -6824,138 +6824,138 @@
       <c r="A252" s="29">
         <v>1</v>
       </c>
-      <c r="B252" s="72" t="s">
+      <c r="B252" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C252" s="72"/>
-      <c r="D252" s="72" t="s">
+      <c r="C252" s="70"/>
+      <c r="D252" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E252" s="72"/>
-      <c r="F252" s="72"/>
+      <c r="E252" s="70"/>
+      <c r="F252" s="70"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="29">
         <v>2</v>
       </c>
-      <c r="B253" s="72" t="s">
+      <c r="B253" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C253" s="72"/>
-      <c r="D253" s="72" t="s">
+      <c r="C253" s="70"/>
+      <c r="D253" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="E253" s="72"/>
-      <c r="F253" s="72"/>
+      <c r="E253" s="70"/>
+      <c r="F253" s="70"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="29">
         <v>3</v>
       </c>
-      <c r="B254" s="72" t="s">
+      <c r="B254" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C254" s="72"/>
-      <c r="D254" s="91">
+      <c r="C254" s="70"/>
+      <c r="D254" s="86">
         <v>899</v>
       </c>
-      <c r="E254" s="91"/>
-      <c r="F254" s="91"/>
+      <c r="E254" s="86"/>
+      <c r="F254" s="86"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="29">
         <v>4</v>
       </c>
-      <c r="B255" s="72" t="s">
+      <c r="B255" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C255" s="72"/>
-      <c r="D255" s="91">
+      <c r="C255" s="70"/>
+      <c r="D255" s="86">
         <v>1185</v>
       </c>
-      <c r="E255" s="91"/>
-      <c r="F255" s="91"/>
+      <c r="E255" s="86"/>
+      <c r="F255" s="86"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C256" s="31"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A257" s="74" t="s">
+      <c r="A257" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B257" s="74" t="s">
+      <c r="B257" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C257" s="75"/>
-      <c r="D257" s="77" t="s">
+      <c r="C257" s="80"/>
+      <c r="D257" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E257" s="78"/>
-      <c r="F257" s="80" t="s">
+      <c r="E257" s="83"/>
+      <c r="F257" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G257" s="80"/>
-      <c r="H257" s="74" t="s">
+      <c r="G257" s="85"/>
+      <c r="H257" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I257" s="74"/>
-      <c r="J257" s="74"/>
+      <c r="I257" s="79"/>
+      <c r="J257" s="79"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A258" s="75"/>
-      <c r="B258" s="76"/>
-      <c r="C258" s="76"/>
-      <c r="D258" s="79"/>
-      <c r="E258" s="79"/>
-      <c r="F258" s="80"/>
-      <c r="G258" s="80"/>
-      <c r="H258" s="74"/>
-      <c r="I258" s="74"/>
-      <c r="J258" s="74"/>
+      <c r="A258" s="80"/>
+      <c r="B258" s="81"/>
+      <c r="C258" s="81"/>
+      <c r="D258" s="84"/>
+      <c r="E258" s="84"/>
+      <c r="F258" s="85"/>
+      <c r="G258" s="85"/>
+      <c r="H258" s="79"/>
+      <c r="I258" s="79"/>
+      <c r="J258" s="79"/>
     </row>
     <row r="259" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="29">
         <v>1</v>
       </c>
-      <c r="B259" s="72" t="s">
+      <c r="B259" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C259" s="73"/>
-      <c r="D259" s="72" t="s">
+      <c r="C259" s="71"/>
+      <c r="D259" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="E259" s="72"/>
-      <c r="F259" s="72" t="s">
+      <c r="E259" s="70"/>
+      <c r="F259" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G259" s="72"/>
-      <c r="H259" s="72" t="s">
+      <c r="G259" s="70"/>
+      <c r="H259" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I259" s="72"/>
-      <c r="J259" s="72"/>
+      <c r="I259" s="70"/>
+      <c r="J259" s="70"/>
     </row>
     <row r="260" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="29">
         <v>2</v>
       </c>
-      <c r="B260" s="72" t="s">
+      <c r="B260" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C260" s="73"/>
-      <c r="D260" s="72" t="s">
+      <c r="C260" s="71"/>
+      <c r="D260" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="E260" s="72"/>
-      <c r="F260" s="72" t="s">
+      <c r="E260" s="70"/>
+      <c r="F260" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G260" s="72"/>
-      <c r="H260" s="72" t="s">
+      <c r="G260" s="70"/>
+      <c r="H260" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I260" s="72"/>
-      <c r="J260" s="72"/>
+      <c r="I260" s="70"/>
+      <c r="J260" s="70"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="22" t="s">
@@ -6963,17 +6963,17 @@
       </c>
     </row>
     <row r="271" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A271" s="84" t="s">
+      <c r="A271" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B271" s="85"/>
+      <c r="B271" s="74"/>
       <c r="C271" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D271" s="84" t="s">
+      <c r="D271" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E271" s="85"/>
+      <c r="E271" s="74"/>
       <c r="F271" s="24" t="s">
         <v>80</v>
       </c>
@@ -6983,21 +6983,21 @@
       <c r="J271" s="24"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A272" s="84" t="s">
+      <c r="A272" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B272" s="85"/>
+      <c r="B272" s="74"/>
       <c r="C272" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D272" s="84" t="s">
+      <c r="D272" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E272" s="85"/>
-      <c r="F272" s="86" t="s">
+      <c r="E272" s="74"/>
+      <c r="F272" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="G272" s="86"/>
+      <c r="G272" s="75"/>
       <c r="H272" s="25" t="s">
         <v>83</v>
       </c>
@@ -7019,10 +7019,10 @@
       <c r="J273" s="24"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A274" s="81" t="s">
+      <c r="A274" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B274" s="82"/>
+      <c r="B274" s="77"/>
       <c r="C274" s="23" t="s">
         <v>86</v>
       </c>
@@ -7047,21 +7047,21 @@
       <c r="J275" s="24"/>
     </row>
     <row r="276" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="83" t="s">
+      <c r="A276" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B276" s="82"/>
+      <c r="B276" s="77"/>
       <c r="C276" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D276" s="83" t="s">
+      <c r="D276" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E276" s="82"/>
-      <c r="F276" s="70" t="s">
+      <c r="E276" s="77"/>
+      <c r="F276" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="G276" s="71"/>
+      <c r="G276" s="89"/>
       <c r="H276" s="25" t="s">
         <v>113</v>
       </c>
@@ -7082,25 +7082,25 @@
       <c r="A278" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B278" s="89" t="s">
+      <c r="B278" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C278" s="89"/>
-      <c r="D278" s="89"/>
-      <c r="E278" s="89"/>
-      <c r="F278" s="89"/>
+      <c r="C278" s="72"/>
+      <c r="D278" s="72"/>
+      <c r="E278" s="72"/>
+      <c r="F278" s="72"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="29">
         <v>1</v>
       </c>
-      <c r="B279" s="72" t="s">
+      <c r="B279" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C279" s="72"/>
-      <c r="D279" s="72"/>
-      <c r="E279" s="72"/>
-      <c r="F279" s="72"/>
+      <c r="C279" s="70"/>
+      <c r="D279" s="70"/>
+      <c r="E279" s="70"/>
+      <c r="F279" s="70"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="24"/>
@@ -7118,15 +7118,15 @@
       <c r="A281" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B281" s="88" t="s">
+      <c r="B281" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C281" s="88"/>
-      <c r="D281" s="88" t="s">
+      <c r="C281" s="87"/>
+      <c r="D281" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E281" s="88"/>
-      <c r="F281" s="88"/>
+      <c r="E281" s="87"/>
+      <c r="F281" s="87"/>
       <c r="G281" s="24"/>
       <c r="H281" s="24"/>
       <c r="I281" s="24"/>
@@ -7136,204 +7136,204 @@
       <c r="A282" s="29">
         <v>1</v>
       </c>
-      <c r="B282" s="72" t="s">
+      <c r="B282" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C282" s="72"/>
-      <c r="D282" s="72" t="s">
+      <c r="C282" s="70"/>
+      <c r="D282" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E282" s="72"/>
-      <c r="F282" s="72"/>
+      <c r="E282" s="70"/>
+      <c r="F282" s="70"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="29">
         <v>2</v>
       </c>
-      <c r="B283" s="72" t="s">
+      <c r="B283" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C283" s="72"/>
-      <c r="D283" s="72" t="s">
+      <c r="C283" s="70"/>
+      <c r="D283" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="E283" s="72"/>
-      <c r="F283" s="72"/>
+      <c r="E283" s="70"/>
+      <c r="F283" s="70"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="29">
         <v>3</v>
       </c>
-      <c r="B284" s="72" t="s">
+      <c r="B284" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C284" s="72"/>
-      <c r="D284" s="91">
+      <c r="C284" s="70"/>
+      <c r="D284" s="86">
         <v>899</v>
       </c>
-      <c r="E284" s="91"/>
-      <c r="F284" s="91"/>
+      <c r="E284" s="86"/>
+      <c r="F284" s="86"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="29">
         <v>4</v>
       </c>
-      <c r="B285" s="72" t="s">
+      <c r="B285" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C285" s="72"/>
-      <c r="D285" s="91">
+      <c r="C285" s="70"/>
+      <c r="D285" s="86">
         <v>1185</v>
       </c>
-      <c r="E285" s="91"/>
-      <c r="F285" s="91"/>
+      <c r="E285" s="86"/>
+      <c r="F285" s="86"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C286" s="31"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A287" s="74" t="s">
+      <c r="A287" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B287" s="74" t="s">
+      <c r="B287" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C287" s="75"/>
-      <c r="D287" s="77" t="s">
+      <c r="C287" s="80"/>
+      <c r="D287" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E287" s="78"/>
-      <c r="F287" s="80" t="s">
+      <c r="E287" s="83"/>
+      <c r="F287" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G287" s="80"/>
-      <c r="H287" s="74" t="s">
+      <c r="G287" s="85"/>
+      <c r="H287" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I287" s="74"/>
-      <c r="J287" s="74"/>
+      <c r="I287" s="79"/>
+      <c r="J287" s="79"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A288" s="75"/>
-      <c r="B288" s="76"/>
-      <c r="C288" s="76"/>
-      <c r="D288" s="79"/>
-      <c r="E288" s="79"/>
-      <c r="F288" s="80"/>
-      <c r="G288" s="80"/>
-      <c r="H288" s="74"/>
-      <c r="I288" s="74"/>
-      <c r="J288" s="74"/>
+      <c r="A288" s="80"/>
+      <c r="B288" s="81"/>
+      <c r="C288" s="81"/>
+      <c r="D288" s="84"/>
+      <c r="E288" s="84"/>
+      <c r="F288" s="85"/>
+      <c r="G288" s="85"/>
+      <c r="H288" s="79"/>
+      <c r="I288" s="79"/>
+      <c r="J288" s="79"/>
     </row>
     <row r="289" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="29">
         <v>1</v>
       </c>
-      <c r="B289" s="72" t="s">
+      <c r="B289" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C289" s="73"/>
-      <c r="D289" s="72" t="s">
+      <c r="C289" s="71"/>
+      <c r="D289" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="E289" s="72"/>
-      <c r="F289" s="72" t="s">
+      <c r="E289" s="70"/>
+      <c r="F289" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G289" s="72"/>
-      <c r="H289" s="72" t="s">
+      <c r="G289" s="70"/>
+      <c r="H289" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I289" s="72"/>
-      <c r="J289" s="72"/>
+      <c r="I289" s="70"/>
+      <c r="J289" s="70"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="29">
         <v>2</v>
       </c>
-      <c r="B290" s="72" t="s">
+      <c r="B290" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C290" s="73"/>
-      <c r="D290" s="72" t="s">
+      <c r="C290" s="71"/>
+      <c r="D290" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="E290" s="72"/>
-      <c r="F290" s="72" t="s">
+      <c r="E290" s="70"/>
+      <c r="F290" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G290" s="72"/>
-      <c r="H290" s="72" t="s">
+      <c r="G290" s="70"/>
+      <c r="H290" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I290" s="72"/>
-      <c r="J290" s="72"/>
+      <c r="I290" s="70"/>
+      <c r="J290" s="70"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="29">
         <v>3</v>
       </c>
-      <c r="B291" s="72" t="s">
+      <c r="B291" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C291" s="73"/>
-      <c r="D291" s="72" t="s">
+      <c r="C291" s="71"/>
+      <c r="D291" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="E291" s="72"/>
-      <c r="F291" s="72" t="s">
+      <c r="E291" s="70"/>
+      <c r="F291" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G291" s="72"/>
-      <c r="H291" s="72" t="s">
+      <c r="G291" s="70"/>
+      <c r="H291" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I291" s="72"/>
-      <c r="J291" s="72"/>
+      <c r="I291" s="70"/>
+      <c r="J291" s="70"/>
     </row>
     <row r="292" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="29">
         <v>4</v>
       </c>
-      <c r="B292" s="72" t="s">
+      <c r="B292" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C292" s="73"/>
-      <c r="D292" s="72" t="s">
+      <c r="C292" s="71"/>
+      <c r="D292" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="E292" s="72"/>
-      <c r="F292" s="72" t="s">
+      <c r="E292" s="70"/>
+      <c r="F292" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G292" s="72"/>
-      <c r="H292" s="72" t="s">
+      <c r="G292" s="70"/>
+      <c r="H292" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I292" s="72"/>
-      <c r="J292" s="72"/>
+      <c r="I292" s="70"/>
+      <c r="J292" s="70"/>
     </row>
     <row r="293" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="29">
         <v>5</v>
       </c>
-      <c r="B293" s="72" t="s">
+      <c r="B293" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C293" s="73"/>
-      <c r="D293" s="72" t="s">
+      <c r="C293" s="71"/>
+      <c r="D293" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="E293" s="72"/>
-      <c r="F293" s="72" t="s">
+      <c r="E293" s="70"/>
+      <c r="F293" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G293" s="72"/>
-      <c r="H293" s="72" t="s">
+      <c r="G293" s="70"/>
+      <c r="H293" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I293" s="72"/>
-      <c r="J293" s="72"/>
+      <c r="I293" s="70"/>
+      <c r="J293" s="70"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="22" t="s">
@@ -7341,17 +7341,17 @@
       </c>
     </row>
     <row r="301" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A301" s="84" t="s">
+      <c r="A301" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B301" s="85"/>
+      <c r="B301" s="74"/>
       <c r="C301" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D301" s="84" t="s">
+      <c r="D301" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E301" s="85"/>
+      <c r="E301" s="74"/>
       <c r="F301" s="24" t="s">
         <v>80</v>
       </c>
@@ -7361,21 +7361,21 @@
       <c r="J301" s="24"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A302" s="84" t="s">
+      <c r="A302" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B302" s="85"/>
+      <c r="B302" s="74"/>
       <c r="C302" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D302" s="84" t="s">
+      <c r="D302" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E302" s="85"/>
-      <c r="F302" s="86" t="s">
+      <c r="E302" s="74"/>
+      <c r="F302" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="G302" s="86"/>
+      <c r="G302" s="75"/>
       <c r="H302" s="25" t="s">
         <v>83</v>
       </c>
@@ -7397,10 +7397,10 @@
       <c r="J303" s="24"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A304" s="81" t="s">
+      <c r="A304" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B304" s="82"/>
+      <c r="B304" s="77"/>
       <c r="C304" s="23" t="s">
         <v>86</v>
       </c>
@@ -7425,21 +7425,21 @@
       <c r="J305" s="24"/>
     </row>
     <row r="306" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A306" s="83" t="s">
+      <c r="A306" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B306" s="82"/>
+      <c r="B306" s="77"/>
       <c r="C306" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D306" s="83" t="s">
+      <c r="D306" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E306" s="82"/>
-      <c r="F306" s="70" t="s">
+      <c r="E306" s="77"/>
+      <c r="F306" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="G306" s="71"/>
+      <c r="G306" s="89"/>
       <c r="H306" s="25" t="s">
         <v>113</v>
       </c>
@@ -7460,25 +7460,25 @@
       <c r="A308" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B308" s="89" t="s">
+      <c r="B308" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C308" s="89"/>
-      <c r="D308" s="89"/>
-      <c r="E308" s="89"/>
-      <c r="F308" s="89"/>
+      <c r="C308" s="72"/>
+      <c r="D308" s="72"/>
+      <c r="E308" s="72"/>
+      <c r="F308" s="72"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="29">
         <v>1</v>
       </c>
-      <c r="B309" s="72" t="s">
+      <c r="B309" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="C309" s="72"/>
-      <c r="D309" s="72"/>
-      <c r="E309" s="72"/>
-      <c r="F309" s="72"/>
+      <c r="C309" s="70"/>
+      <c r="D309" s="70"/>
+      <c r="E309" s="70"/>
+      <c r="F309" s="70"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="24"/>
@@ -7496,15 +7496,15 @@
       <c r="A311" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B311" s="88" t="s">
+      <c r="B311" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C311" s="88"/>
-      <c r="D311" s="88" t="s">
+      <c r="C311" s="87"/>
+      <c r="D311" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E311" s="88"/>
-      <c r="F311" s="88"/>
+      <c r="E311" s="87"/>
+      <c r="F311" s="87"/>
       <c r="G311" s="24"/>
       <c r="H311" s="24"/>
       <c r="I311" s="24"/>
@@ -7514,15 +7514,15 @@
       <c r="A312" s="29">
         <v>1</v>
       </c>
-      <c r="B312" s="72" t="s">
+      <c r="B312" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C312" s="72"/>
-      <c r="D312" s="72" t="s">
+      <c r="C312" s="70"/>
+      <c r="D312" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E312" s="72"/>
-      <c r="F312" s="72"/>
+      <c r="E312" s="70"/>
+      <c r="F312" s="70"/>
       <c r="G312" s="24"/>
       <c r="H312" s="24"/>
       <c r="I312" s="24"/>
@@ -7532,15 +7532,15 @@
       <c r="A313" s="29">
         <v>2</v>
       </c>
-      <c r="B313" s="72" t="s">
+      <c r="B313" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C313" s="72"/>
-      <c r="D313" s="72" t="s">
+      <c r="C313" s="70"/>
+      <c r="D313" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="E313" s="72"/>
-      <c r="F313" s="72"/>
+      <c r="E313" s="70"/>
+      <c r="F313" s="70"/>
       <c r="G313" s="24"/>
       <c r="H313" s="24"/>
       <c r="I313" s="24"/>
@@ -7550,15 +7550,15 @@
       <c r="A314" s="29">
         <v>3</v>
       </c>
-      <c r="B314" s="72" t="s">
+      <c r="B314" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C314" s="72"/>
-      <c r="D314" s="91">
+      <c r="C314" s="70"/>
+      <c r="D314" s="86">
         <v>899</v>
       </c>
-      <c r="E314" s="91"/>
-      <c r="F314" s="91"/>
+      <c r="E314" s="86"/>
+      <c r="F314" s="86"/>
       <c r="G314" s="24"/>
       <c r="H314" s="24"/>
       <c r="I314" s="24"/>
@@ -7568,15 +7568,15 @@
       <c r="A315" s="29">
         <v>4</v>
       </c>
-      <c r="B315" s="72" t="s">
+      <c r="B315" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C315" s="72"/>
-      <c r="D315" s="91">
+      <c r="C315" s="70"/>
+      <c r="D315" s="86">
         <v>1185</v>
       </c>
-      <c r="E315" s="91"/>
-      <c r="F315" s="91"/>
+      <c r="E315" s="86"/>
+      <c r="F315" s="86"/>
       <c r="G315" s="24"/>
       <c r="H315" s="24"/>
       <c r="I315" s="24"/>
@@ -7586,126 +7586,126 @@
       <c r="C316" s="31"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A317" s="74" t="s">
+      <c r="A317" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B317" s="74" t="s">
+      <c r="B317" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C317" s="75"/>
-      <c r="D317" s="77" t="s">
+      <c r="C317" s="80"/>
+      <c r="D317" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E317" s="78"/>
-      <c r="F317" s="80" t="s">
+      <c r="E317" s="83"/>
+      <c r="F317" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G317" s="80"/>
-      <c r="H317" s="74" t="s">
+      <c r="G317" s="85"/>
+      <c r="H317" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I317" s="74"/>
-      <c r="J317" s="74"/>
+      <c r="I317" s="79"/>
+      <c r="J317" s="79"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A318" s="75"/>
-      <c r="B318" s="76"/>
-      <c r="C318" s="76"/>
-      <c r="D318" s="79"/>
-      <c r="E318" s="79"/>
-      <c r="F318" s="80"/>
-      <c r="G318" s="80"/>
-      <c r="H318" s="74"/>
-      <c r="I318" s="74"/>
-      <c r="J318" s="74"/>
+      <c r="A318" s="80"/>
+      <c r="B318" s="81"/>
+      <c r="C318" s="81"/>
+      <c r="D318" s="84"/>
+      <c r="E318" s="84"/>
+      <c r="F318" s="85"/>
+      <c r="G318" s="85"/>
+      <c r="H318" s="79"/>
+      <c r="I318" s="79"/>
+      <c r="J318" s="79"/>
     </row>
     <row r="319" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="29">
         <v>1</v>
       </c>
-      <c r="B319" s="72" t="s">
+      <c r="B319" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C319" s="73"/>
-      <c r="D319" s="72" t="s">
+      <c r="C319" s="71"/>
+      <c r="D319" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="E319" s="72"/>
-      <c r="F319" s="72" t="s">
+      <c r="E319" s="70"/>
+      <c r="F319" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G319" s="72"/>
-      <c r="H319" s="72" t="s">
+      <c r="G319" s="70"/>
+      <c r="H319" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I319" s="72"/>
-      <c r="J319" s="72"/>
+      <c r="I319" s="70"/>
+      <c r="J319" s="70"/>
     </row>
     <row r="320" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="29">
         <v>2</v>
       </c>
-      <c r="B320" s="72" t="s">
+      <c r="B320" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C320" s="73"/>
-      <c r="D320" s="72" t="s">
+      <c r="C320" s="71"/>
+      <c r="D320" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="E320" s="72"/>
-      <c r="F320" s="72" t="s">
+      <c r="E320" s="70"/>
+      <c r="F320" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G320" s="72"/>
-      <c r="H320" s="72" t="s">
+      <c r="G320" s="70"/>
+      <c r="H320" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I320" s="72"/>
-      <c r="J320" s="72"/>
+      <c r="I320" s="70"/>
+      <c r="J320" s="70"/>
     </row>
     <row r="321" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="29">
         <v>3</v>
       </c>
-      <c r="B321" s="72" t="s">
+      <c r="B321" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C321" s="73"/>
-      <c r="D321" s="72" t="s">
+      <c r="C321" s="71"/>
+      <c r="D321" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="E321" s="72"/>
-      <c r="F321" s="72" t="s">
+      <c r="E321" s="70"/>
+      <c r="F321" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G321" s="72"/>
-      <c r="H321" s="72" t="s">
+      <c r="G321" s="70"/>
+      <c r="H321" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I321" s="72"/>
-      <c r="J321" s="72"/>
+      <c r="I321" s="70"/>
+      <c r="J321" s="70"/>
     </row>
     <row r="322" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="29">
         <v>4</v>
       </c>
-      <c r="B322" s="72" t="s">
+      <c r="B322" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="C322" s="73"/>
-      <c r="D322" s="72" t="s">
+      <c r="C322" s="71"/>
+      <c r="D322" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="E322" s="72"/>
-      <c r="F322" s="72" t="s">
+      <c r="E322" s="70"/>
+      <c r="F322" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G322" s="72"/>
-      <c r="H322" s="72" t="s">
+      <c r="G322" s="70"/>
+      <c r="H322" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I322" s="72"/>
-      <c r="J322" s="72"/>
+      <c r="I322" s="70"/>
+      <c r="J322" s="70"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="22" t="s">
@@ -7713,17 +7713,17 @@
       </c>
     </row>
     <row r="325" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A325" s="84" t="s">
+      <c r="A325" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B325" s="85"/>
+      <c r="B325" s="74"/>
       <c r="C325" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D325" s="84" t="s">
+      <c r="D325" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E325" s="85"/>
+      <c r="E325" s="74"/>
       <c r="F325" s="24" t="s">
         <v>80</v>
       </c>
@@ -7733,21 +7733,21 @@
       <c r="J325" s="24"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A326" s="84" t="s">
+      <c r="A326" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B326" s="85"/>
+      <c r="B326" s="74"/>
       <c r="C326" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D326" s="84" t="s">
+      <c r="D326" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E326" s="85"/>
-      <c r="F326" s="86" t="s">
+      <c r="E326" s="74"/>
+      <c r="F326" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="G326" s="86"/>
+      <c r="G326" s="75"/>
       <c r="H326" s="25" t="s">
         <v>83</v>
       </c>
@@ -7769,10 +7769,10 @@
       <c r="J327" s="24"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A328" s="81" t="s">
+      <c r="A328" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B328" s="82"/>
+      <c r="B328" s="77"/>
       <c r="C328" s="23" t="s">
         <v>86</v>
       </c>
@@ -7797,21 +7797,21 @@
       <c r="J329" s="24"/>
     </row>
     <row r="330" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A330" s="83" t="s">
+      <c r="A330" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B330" s="82"/>
+      <c r="B330" s="77"/>
       <c r="C330" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D330" s="83" t="s">
+      <c r="D330" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="E330" s="82"/>
-      <c r="F330" s="70" t="s">
+      <c r="E330" s="77"/>
+      <c r="F330" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="G330" s="71"/>
+      <c r="G330" s="89"/>
       <c r="H330" s="25" t="s">
         <v>113</v>
       </c>
@@ -7832,25 +7832,25 @@
       <c r="A332" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B332" s="89" t="s">
+      <c r="B332" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C332" s="89"/>
-      <c r="D332" s="89"/>
-      <c r="E332" s="89"/>
-      <c r="F332" s="89"/>
+      <c r="C332" s="72"/>
+      <c r="D332" s="72"/>
+      <c r="E332" s="72"/>
+      <c r="F332" s="72"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="29">
         <v>1</v>
       </c>
-      <c r="B333" s="72" t="s">
+      <c r="B333" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C333" s="72"/>
-      <c r="D333" s="72"/>
-      <c r="E333" s="72"/>
-      <c r="F333" s="72"/>
+      <c r="C333" s="70"/>
+      <c r="D333" s="70"/>
+      <c r="E333" s="70"/>
+      <c r="F333" s="70"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="24"/>
@@ -7868,15 +7868,15 @@
       <c r="A335" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B335" s="88" t="s">
+      <c r="B335" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C335" s="88"/>
-      <c r="D335" s="88" t="s">
+      <c r="C335" s="87"/>
+      <c r="D335" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E335" s="88"/>
-      <c r="F335" s="88"/>
+      <c r="E335" s="87"/>
+      <c r="F335" s="87"/>
       <c r="G335" s="24"/>
       <c r="H335" s="24"/>
       <c r="I335" s="24"/>
@@ -7910,414 +7910,132 @@
       <c r="C340" s="31"/>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A341" s="74" t="s">
+      <c r="A341" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B341" s="74" t="s">
+      <c r="B341" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C341" s="75"/>
-      <c r="D341" s="77" t="s">
+      <c r="C341" s="80"/>
+      <c r="D341" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E341" s="78"/>
-      <c r="F341" s="80" t="s">
+      <c r="E341" s="83"/>
+      <c r="F341" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G341" s="80"/>
-      <c r="H341" s="74" t="s">
+      <c r="G341" s="85"/>
+      <c r="H341" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="I341" s="74"/>
-      <c r="J341" s="74"/>
+      <c r="I341" s="79"/>
+      <c r="J341" s="79"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A342" s="75"/>
-      <c r="B342" s="76"/>
-      <c r="C342" s="76"/>
-      <c r="D342" s="79"/>
-      <c r="E342" s="79"/>
-      <c r="F342" s="80"/>
-      <c r="G342" s="80"/>
-      <c r="H342" s="74"/>
-      <c r="I342" s="74"/>
-      <c r="J342" s="74"/>
+      <c r="A342" s="80"/>
+      <c r="B342" s="81"/>
+      <c r="C342" s="81"/>
+      <c r="D342" s="84"/>
+      <c r="E342" s="84"/>
+      <c r="F342" s="85"/>
+      <c r="G342" s="85"/>
+      <c r="H342" s="79"/>
+      <c r="I342" s="79"/>
+      <c r="J342" s="79"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="29">
         <v>1</v>
       </c>
-      <c r="B343" s="72" t="s">
+      <c r="B343" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C343" s="73"/>
-      <c r="D343" s="72" t="s">
+      <c r="C343" s="71"/>
+      <c r="D343" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="E343" s="72"/>
-      <c r="F343" s="72" t="s">
+      <c r="E343" s="70"/>
+      <c r="F343" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G343" s="72"/>
-      <c r="H343" s="72" t="s">
+      <c r="G343" s="70"/>
+      <c r="H343" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I343" s="72"/>
-      <c r="J343" s="72"/>
+      <c r="I343" s="70"/>
+      <c r="J343" s="70"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="29">
         <v>2</v>
       </c>
-      <c r="B344" s="72" t="s">
+      <c r="B344" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="C344" s="73"/>
-      <c r="D344" s="72" t="s">
+      <c r="C344" s="71"/>
+      <c r="D344" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="E344" s="72"/>
-      <c r="F344" s="72" t="s">
+      <c r="E344" s="70"/>
+      <c r="F344" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G344" s="72"/>
-      <c r="H344" s="72" t="s">
+      <c r="G344" s="70"/>
+      <c r="H344" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="I344" s="72"/>
-      <c r="J344" s="72"/>
+      <c r="I344" s="70"/>
+      <c r="J344" s="70"/>
     </row>
     <row r="345" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="346" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="D321:E321"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="H321:J321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="H322:J322"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="D326:E326"/>
-    <mergeCell ref="F326:G326"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="D319:E319"/>
-    <mergeCell ref="F319:G319"/>
-    <mergeCell ref="H319:J319"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D320:E320"/>
-    <mergeCell ref="F320:G320"/>
-    <mergeCell ref="H320:J320"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="B317:C318"/>
-    <mergeCell ref="D317:E318"/>
-    <mergeCell ref="F317:G318"/>
-    <mergeCell ref="H317:J318"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="D313:F313"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="D314:F314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="D315:F315"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="D312:F312"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="H293:J293"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:J291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:J292"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="H289:J289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="H290:J290"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:C288"/>
-    <mergeCell ref="D287:E288"/>
-    <mergeCell ref="F287:G288"/>
-    <mergeCell ref="H287:J288"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="D283:F283"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D284:F284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="D285:F285"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="D281:F281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="D282:F282"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="F272:G272"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="F276:G276"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="H259:J259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="H260:J260"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B257:C258"/>
-    <mergeCell ref="D257:E258"/>
-    <mergeCell ref="F257:G258"/>
-    <mergeCell ref="H257:J258"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:F253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="D254:F254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="D255:F255"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:F251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:F252"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="H238:J238"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="H236:J236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="H237:J237"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="H235:J235"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="B233:C234"/>
-    <mergeCell ref="D233:E234"/>
-    <mergeCell ref="F233:G234"/>
-    <mergeCell ref="H233:J234"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="F222:G222"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F207:G207"/>
-    <mergeCell ref="H207:J207"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:C206"/>
-    <mergeCell ref="D205:E206"/>
-    <mergeCell ref="F205:G206"/>
-    <mergeCell ref="H205:J206"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:F201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="D203:F203"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="H179:J179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="H180:J180"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:C178"/>
-    <mergeCell ref="D177:E178"/>
-    <mergeCell ref="F177:G178"/>
-    <mergeCell ref="H177:J178"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:C148"/>
-    <mergeCell ref="D147:E148"/>
-    <mergeCell ref="F147:G148"/>
-    <mergeCell ref="H147:J148"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:C117"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="F116:G117"/>
-    <mergeCell ref="H116:J117"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:C86"/>
-    <mergeCell ref="D85:E86"/>
-    <mergeCell ref="F85:G86"/>
-    <mergeCell ref="H85:J86"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="H344:J344"/>
+    <mergeCell ref="A341:A342"/>
+    <mergeCell ref="B341:C342"/>
+    <mergeCell ref="D341:E342"/>
+    <mergeCell ref="F341:G342"/>
+    <mergeCell ref="H341:J342"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="H343:J343"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="H52:J53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
@@ -8340,52 +8058,334 @@
     <mergeCell ref="B52:C53"/>
     <mergeCell ref="D52:E53"/>
     <mergeCell ref="F52:G53"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:C86"/>
+    <mergeCell ref="D85:E86"/>
+    <mergeCell ref="F85:G86"/>
+    <mergeCell ref="H85:J86"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:C117"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="F116:G117"/>
+    <mergeCell ref="H116:J117"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:C148"/>
+    <mergeCell ref="D147:E148"/>
+    <mergeCell ref="F147:G148"/>
+    <mergeCell ref="H147:J148"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="H180:J180"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:C178"/>
+    <mergeCell ref="D177:E178"/>
+    <mergeCell ref="F177:G178"/>
+    <mergeCell ref="H177:J178"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="H207:J207"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:C206"/>
+    <mergeCell ref="D205:E206"/>
+    <mergeCell ref="F205:G206"/>
+    <mergeCell ref="H205:J206"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="H235:J235"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:C234"/>
+    <mergeCell ref="D233:E234"/>
+    <mergeCell ref="F233:G234"/>
+    <mergeCell ref="H233:J234"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="H238:J238"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="H236:J236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="H237:J237"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="D254:F254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D255:F255"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:F251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:F252"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="H259:J259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="H260:J260"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B257:C258"/>
+    <mergeCell ref="D257:E258"/>
+    <mergeCell ref="F257:G258"/>
+    <mergeCell ref="H257:J258"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="F272:G272"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="F276:G276"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="D283:F283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D284:F284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="D285:F285"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="D281:F281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="D282:F282"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="H289:J289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="H290:J290"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:C288"/>
+    <mergeCell ref="D287:E288"/>
+    <mergeCell ref="F287:G288"/>
+    <mergeCell ref="H287:J288"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:J291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:J292"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="D313:F313"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="D314:F314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="D315:F315"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="D312:F312"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="D319:E319"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="H319:J319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D320:E320"/>
+    <mergeCell ref="F320:G320"/>
+    <mergeCell ref="H320:J320"/>
+    <mergeCell ref="A317:A318"/>
+    <mergeCell ref="B317:C318"/>
+    <mergeCell ref="D317:E318"/>
+    <mergeCell ref="F317:G318"/>
+    <mergeCell ref="H317:J318"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="D321:E321"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="H321:J321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="H322:J322"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="D326:E326"/>
+    <mergeCell ref="F326:G326"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="D330:E330"/>
     <mergeCell ref="F330:G330"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="F344:G344"/>
-    <mergeCell ref="H344:J344"/>
-    <mergeCell ref="A341:A342"/>
-    <mergeCell ref="B341:C342"/>
-    <mergeCell ref="D341:E342"/>
-    <mergeCell ref="F341:G342"/>
-    <mergeCell ref="H341:J342"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="D343:E343"/>
-    <mergeCell ref="F343:G343"/>
-    <mergeCell ref="H343:J343"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="D335:F335"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -8393,18 +8393,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8611,18 +8611,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
